--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File\GitHub\Married-Couple-Identification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD10545-88B5-472D-B159-6F6432B2C8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B3F935-DFAC-4394-BB09-FAAB9B3743D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1294,13 +1294,13 @@
     <t>transaction_statement</t>
   </si>
   <si>
-    <t>customer_demog_banking_relation_1</t>
-  </si>
-  <si>
-    <t>customer_demog_banking_relation_2</t>
-  </si>
-  <si>
     <t>transactions</t>
+  </si>
+  <si>
+    <t>customer_demog_1</t>
+  </si>
+  <si>
+    <t>customer_demog_2</t>
   </si>
 </sst>
 </file>
@@ -30973,6 +30973,11 @@
   </sheetData>
   <autoFilter ref="B1:D218" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A116"/>
+    <mergeCell ref="A117:A218"/>
     <mergeCell ref="A59:A71"/>
     <mergeCell ref="A72:A80"/>
     <mergeCell ref="G1:I1"/>
@@ -30980,11 +30985,6 @@
     <mergeCell ref="G2:I4"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A41:A58"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A116"/>
-    <mergeCell ref="A117:A218"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31146,7 +31146,7 @@
         <v>316</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>38</v>
@@ -31173,7 +31173,7 @@
         <v>318</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
@@ -31200,7 +31200,7 @@
         <v>320</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>26</v>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File\GitHub\Married-Couple-Identification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EA690E9-763B-44E3-B17C-31F1D07A288A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33368FE-0075-4495-9247-557C7E92DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3516" yWindow="3516" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="403">
   <si>
     <t>SPACE</t>
   </si>
@@ -1031,9 +1031,6 @@
     <t>customer_income_level</t>
   </si>
   <si>
-    <t>musteri_kitle_100k.csv</t>
-  </si>
-  <si>
     <t>customer_demog</t>
   </si>
   <si>
@@ -1303,10 +1300,16 @@
     <t>response_score</t>
   </si>
   <si>
+    <t>customer_segment</t>
+  </si>
+  <si>
+    <t>kitle_orneklem_100k.csv</t>
+  </si>
+  <si>
     <t>atm_islem_xy.csv</t>
   </si>
   <si>
-    <t>atm_data</t>
+    <t>atm</t>
   </si>
 </sst>
 </file>
@@ -1613,6 +1616,15 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1634,15 +1646,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1895,11 +1898,11 @@
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24"/>
-      <c r="I1" s="25"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -1919,7 +1922,7 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1933,11 +1936,11 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1957,7 +1960,7 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1969,9 +1972,9 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="31"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1991,7 +1994,7 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2003,9 +2006,9 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="37"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -2025,7 +2028,7 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2062,7 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4" t="s">
         <v>16</v>
       </c>
@@ -2101,7 +2104,7 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2144,7 +2147,7 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
@@ -2187,7 +2190,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2230,7 +2233,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -2273,7 +2276,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -2316,7 +2319,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
@@ -2359,7 +2362,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
@@ -2402,7 +2405,7 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -2445,7 +2448,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
@@ -2488,7 +2491,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
@@ -2531,7 +2534,7 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
@@ -2574,7 +2577,7 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="4" t="s">
         <v>51</v>
       </c>
@@ -2617,7 +2620,7 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
@@ -2660,7 +2663,7 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="4" t="s">
         <v>55</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2746,7 +2749,7 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="4" t="s">
         <v>61</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="4" t="s">
         <v>64</v>
       </c>
@@ -2832,7 +2835,7 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
@@ -2843,10 +2846,10 @@
         <v>68</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="G24" s="25"/>
+      <c r="G24" s="28"/>
       <c r="H24" s="5">
         <f t="shared" ref="H24:I24" si="1">SUM(H7:H23)</f>
         <v>217</v>
@@ -2874,7 +2877,7 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="4" t="s">
         <v>70</v>
       </c>
@@ -2908,7 +2911,7 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
@@ -2942,7 +2945,7 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="4" t="s">
         <v>72</v>
       </c>
@@ -2976,7 +2979,7 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
         <v>74</v>
       </c>
@@ -3010,7 +3013,7 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
@@ -3044,7 +3047,7 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
@@ -3078,7 +3081,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
@@ -3112,7 +3115,7 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
@@ -3146,7 +3149,7 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
@@ -3180,7 +3183,7 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="4" t="s">
         <v>85</v>
       </c>
@@ -3214,7 +3217,7 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
@@ -3248,7 +3251,7 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="4" t="s">
         <v>89</v>
       </c>
@@ -3282,7 +3285,7 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
@@ -3316,7 +3319,7 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
@@ -3349,7 +3352,7 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
@@ -3382,7 +3385,7 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>94</v>
       </c>
@@ -3415,7 +3418,7 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3450,7 +3453,7 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="4" t="s">
         <v>97</v>
       </c>
@@ -3484,7 +3487,7 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="4" t="s">
         <v>99</v>
       </c>
@@ -3517,7 +3520,7 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="4" t="s">
         <v>101</v>
       </c>
@@ -3550,7 +3553,7 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="10" t="s">
         <v>6</v>
       </c>
@@ -3583,7 +3586,7 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
@@ -3616,7 +3619,7 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="10" t="s">
         <v>104</v>
       </c>
@@ -3649,7 +3652,7 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
@@ -3682,7 +3685,7 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
@@ -3715,7 +3718,7 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="10" t="s">
         <v>110</v>
       </c>
@@ -3748,7 +3751,7 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="4" t="s">
         <v>112</v>
       </c>
@@ -3781,7 +3784,7 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="4" t="s">
         <v>114</v>
       </c>
@@ -3814,7 +3817,7 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="4" t="s">
         <v>116</v>
       </c>
@@ -3847,7 +3850,7 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="10" t="s">
         <v>64</v>
       </c>
@@ -3880,7 +3883,7 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10" t="s">
         <v>67</v>
       </c>
@@ -3913,7 +3916,7 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -3946,7 +3949,7 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="4" t="s">
         <v>120</v>
       </c>
@@ -3979,7 +3982,7 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
         <v>101</v>
       </c>
@@ -4012,7 +4015,7 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4047,7 +4050,7 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="4" t="s">
         <v>97</v>
       </c>
@@ -4080,7 +4083,7 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
@@ -4113,7 +4116,7 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
@@ -4146,7 +4149,7 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="4" t="s">
         <v>120</v>
       </c>
@@ -4179,7 +4182,7 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="4" t="s">
         <v>128</v>
       </c>
@@ -4212,7 +4215,7 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="4" t="s">
         <v>130</v>
       </c>
@@ -4245,7 +4248,7 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="4" t="s">
         <v>132</v>
       </c>
@@ -4278,7 +4281,7 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="4" t="s">
         <v>134</v>
       </c>
@@ -4311,7 +4314,7 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
@@ -4344,7 +4347,7 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="10" t="s">
         <v>6</v>
       </c>
@@ -4377,7 +4380,7 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="10" t="s">
         <v>72</v>
       </c>
@@ -4410,7 +4413,7 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="10" t="s">
         <v>139</v>
       </c>
@@ -4443,7 +4446,7 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -4478,7 +4481,7 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="10" t="s">
         <v>144</v>
       </c>
@@ -4511,7 +4514,7 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="4" t="s">
         <v>116</v>
       </c>
@@ -4544,7 +4547,7 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="10" t="s">
         <v>147</v>
       </c>
@@ -4577,7 +4580,7 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="10" t="s">
         <v>149</v>
       </c>
@@ -4610,7 +4613,7 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -4643,7 +4646,7 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="4" t="s">
         <v>72</v>
       </c>
@@ -4676,7 +4679,7 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="4" t="s">
         <v>152</v>
       </c>
@@ -4709,7 +4712,7 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="4" t="s">
         <v>154</v>
       </c>
@@ -4742,7 +4745,7 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="23" t="s">
         <v>156</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -4777,7 +4780,7 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="4" t="s">
         <v>97</v>
       </c>
@@ -4810,7 +4813,7 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="4" t="s">
         <v>6</v>
       </c>
@@ -4843,7 +4846,7 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="4" t="s">
         <v>72</v>
       </c>
@@ -4876,7 +4879,7 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="4" t="s">
         <v>161</v>
       </c>
@@ -4909,7 +4912,7 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="4" t="s">
         <v>116</v>
       </c>
@@ -4942,7 +4945,7 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="4" t="s">
         <v>157</v>
       </c>
@@ -4975,7 +4978,7 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="4" t="s">
         <v>164</v>
       </c>
@@ -5008,7 +5011,7 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="4" t="s">
         <v>166</v>
       </c>
@@ -5041,7 +5044,7 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="23" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -5076,7 +5079,7 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="10" t="s">
         <v>6</v>
       </c>
@@ -5109,7 +5112,7 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="10" t="s">
         <v>169</v>
       </c>
@@ -5142,7 +5145,7 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="4" t="s">
         <v>116</v>
       </c>
@@ -5175,7 +5178,7 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="4" t="s">
         <v>171</v>
       </c>
@@ -5208,7 +5211,7 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="4" t="s">
         <v>173</v>
       </c>
@@ -5241,7 +5244,7 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="10" t="s">
         <v>175</v>
       </c>
@@ -5274,7 +5277,7 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="10" t="s">
         <v>176</v>
       </c>
@@ -5307,7 +5310,7 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="23" t="s">
         <v>178</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -5342,7 +5345,7 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -5375,7 +5378,7 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="4" t="s">
         <v>181</v>
       </c>
@@ -5408,7 +5411,7 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="23" t="s">
         <v>183</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -5443,7 +5446,7 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="4" t="s">
         <v>184</v>
       </c>
@@ -5476,7 +5479,7 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="4" t="s">
         <v>186</v>
       </c>
@@ -5509,7 +5512,7 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21"/>
+      <c r="A104" s="24"/>
       <c r="B104" s="4" t="s">
         <v>188</v>
       </c>
@@ -5542,7 +5545,7 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21"/>
+      <c r="A105" s="24"/>
       <c r="B105" s="4" t="s">
         <v>190</v>
       </c>
@@ -5575,7 +5578,7 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="4" t="s">
         <v>192</v>
       </c>
@@ -5608,7 +5611,7 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="21"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="4" t="s">
         <v>194</v>
       </c>
@@ -5641,7 +5644,7 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="21"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="4" t="s">
         <v>196</v>
       </c>
@@ -5674,7 +5677,7 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="4" t="s">
         <v>198</v>
       </c>
@@ -5707,7 +5710,7 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="4" t="s">
         <v>6</v>
       </c>
@@ -5740,7 +5743,7 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="21"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="4" t="s">
         <v>184</v>
       </c>
@@ -5773,7 +5776,7 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="4" t="s">
         <v>200</v>
       </c>
@@ -5806,7 +5809,7 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="21"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="4" t="s">
         <v>192</v>
       </c>
@@ -5839,7 +5842,7 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="4" t="s">
         <v>201</v>
       </c>
@@ -5872,7 +5875,7 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="21"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="4" t="s">
         <v>196</v>
       </c>
@@ -5905,7 +5908,7 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="4" t="s">
         <v>198</v>
       </c>
@@ -5938,7 +5941,7 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="23" t="s">
         <v>202</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -5973,7 +5976,7 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="21"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="4" t="s">
         <v>72</v>
       </c>
@@ -6006,7 +6009,7 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="4" t="s">
         <v>203</v>
       </c>
@@ -6037,7 +6040,7 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="21"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="4" t="s">
         <v>204</v>
       </c>
@@ -6068,7 +6071,7 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="21"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="4" t="s">
         <v>205</v>
       </c>
@@ -6099,7 +6102,7 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
+      <c r="A122" s="24"/>
       <c r="B122" s="4" t="s">
         <v>206</v>
       </c>
@@ -6130,7 +6133,7 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="4" t="s">
         <v>207</v>
       </c>
@@ -6161,7 +6164,7 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="4" t="s">
         <v>208</v>
       </c>
@@ -6192,7 +6195,7 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="4" t="s">
         <v>209</v>
       </c>
@@ -6223,7 +6226,7 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="4" t="s">
         <v>210</v>
       </c>
@@ -6254,7 +6257,7 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="4" t="s">
         <v>211</v>
       </c>
@@ -6285,7 +6288,7 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="4" t="s">
         <v>212</v>
       </c>
@@ -6316,7 +6319,7 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="21"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="4" t="s">
         <v>213</v>
       </c>
@@ -6347,7 +6350,7 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="4" t="s">
         <v>214</v>
       </c>
@@ -6378,7 +6381,7 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
+      <c r="A131" s="24"/>
       <c r="B131" s="4" t="s">
         <v>215</v>
       </c>
@@ -6409,7 +6412,7 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="21"/>
+      <c r="A132" s="24"/>
       <c r="B132" s="4" t="s">
         <v>216</v>
       </c>
@@ -6440,7 +6443,7 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
+      <c r="A133" s="24"/>
       <c r="B133" s="4" t="s">
         <v>217</v>
       </c>
@@ -6471,7 +6474,7 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
+      <c r="A134" s="24"/>
       <c r="B134" s="4" t="s">
         <v>218</v>
       </c>
@@ -6502,7 +6505,7 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="21"/>
+      <c r="A135" s="24"/>
       <c r="B135" s="4" t="s">
         <v>219</v>
       </c>
@@ -6533,7 +6536,7 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
+      <c r="A136" s="24"/>
       <c r="B136" s="4" t="s">
         <v>220</v>
       </c>
@@ -6564,7 +6567,7 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="4" t="s">
         <v>221</v>
       </c>
@@ -6595,7 +6598,7 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="21"/>
+      <c r="A138" s="24"/>
       <c r="B138" s="4" t="s">
         <v>222</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="21"/>
+      <c r="A139" s="24"/>
       <c r="B139" s="4" t="s">
         <v>223</v>
       </c>
@@ -6657,7 +6660,7 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
+      <c r="A140" s="24"/>
       <c r="B140" s="4" t="s">
         <v>224</v>
       </c>
@@ -6688,7 +6691,7 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
+      <c r="A141" s="24"/>
       <c r="B141" s="4" t="s">
         <v>225</v>
       </c>
@@ -6719,7 +6722,7 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="21"/>
+      <c r="A142" s="24"/>
       <c r="B142" s="4" t="s">
         <v>226</v>
       </c>
@@ -6750,7 +6753,7 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="21"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="4" t="s">
         <v>227</v>
       </c>
@@ -6781,7 +6784,7 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="4" t="s">
         <v>228</v>
       </c>
@@ -6812,7 +6815,7 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="21"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="4" t="s">
         <v>229</v>
       </c>
@@ -6843,7 +6846,7 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="4" t="s">
         <v>230</v>
       </c>
@@ -6874,7 +6877,7 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="21"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="4" t="s">
         <v>231</v>
       </c>
@@ -6905,7 +6908,7 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="4" t="s">
         <v>232</v>
       </c>
@@ -6936,7 +6939,7 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="21"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="4" t="s">
         <v>233</v>
       </c>
@@ -6967,7 +6970,7 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="21"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="4" t="s">
         <v>234</v>
       </c>
@@ -6998,7 +7001,7 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="21"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="4" t="s">
         <v>235</v>
       </c>
@@ -7029,7 +7032,7 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="4" t="s">
         <v>236</v>
       </c>
@@ -7060,7 +7063,7 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="21"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="4" t="s">
         <v>237</v>
       </c>
@@ -7091,7 +7094,7 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="4" t="s">
         <v>238</v>
       </c>
@@ -7122,7 +7125,7 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="21"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="4" t="s">
         <v>239</v>
       </c>
@@ -7153,7 +7156,7 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="4" t="s">
         <v>240</v>
       </c>
@@ -7184,7 +7187,7 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="4" t="s">
         <v>241</v>
       </c>
@@ -7215,7 +7218,7 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
+      <c r="A158" s="24"/>
       <c r="B158" s="4" t="s">
         <v>242</v>
       </c>
@@ -7246,7 +7249,7 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="21"/>
+      <c r="A159" s="24"/>
       <c r="B159" s="4" t="s">
         <v>243</v>
       </c>
@@ -7277,7 +7280,7 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="21"/>
+      <c r="A160" s="24"/>
       <c r="B160" s="4" t="s">
         <v>244</v>
       </c>
@@ -7308,7 +7311,7 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="4" t="s">
         <v>245</v>
       </c>
@@ -7339,7 +7342,7 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="21"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="4" t="s">
         <v>246</v>
       </c>
@@ -7370,7 +7373,7 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="21"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="4" t="s">
         <v>247</v>
       </c>
@@ -7401,7 +7404,7 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="4" t="s">
         <v>248</v>
       </c>
@@ -7432,7 +7435,7 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="4" t="s">
         <v>249</v>
       </c>
@@ -7463,7 +7466,7 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="21"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="4" t="s">
         <v>250</v>
       </c>
@@ -7494,7 +7497,7 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="4" t="s">
         <v>251</v>
       </c>
@@ -7525,7 +7528,7 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="21"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="4" t="s">
         <v>252</v>
       </c>
@@ -7556,7 +7559,7 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="21"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="4" t="s">
         <v>253</v>
       </c>
@@ -7587,7 +7590,7 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="21"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="4" t="s">
         <v>254</v>
       </c>
@@ -7618,7 +7621,7 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="4" t="s">
         <v>255</v>
       </c>
@@ -7649,7 +7652,7 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="21"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="4" t="s">
         <v>256</v>
       </c>
@@ -7680,7 +7683,7 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="21"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="4" t="s">
         <v>257</v>
       </c>
@@ -7711,7 +7714,7 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="21"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="4" t="s">
         <v>258</v>
       </c>
@@ -7742,7 +7745,7 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="21"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="4" t="s">
         <v>259</v>
       </c>
@@ -7773,7 +7776,7 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="21"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="4" t="s">
         <v>260</v>
       </c>
@@ -7804,7 +7807,7 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="4" t="s">
         <v>261</v>
       </c>
@@ -7835,7 +7838,7 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="21"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="4" t="s">
         <v>262</v>
       </c>
@@ -7866,7 +7869,7 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="21"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="4" t="s">
         <v>263</v>
       </c>
@@ -7897,7 +7900,7 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="21"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="4" t="s">
         <v>264</v>
       </c>
@@ -7928,7 +7931,7 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="4" t="s">
         <v>265</v>
       </c>
@@ -7959,7 +7962,7 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="4" t="s">
         <v>266</v>
       </c>
@@ -7990,7 +7993,7 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="4" t="s">
         <v>267</v>
       </c>
@@ -8021,7 +8024,7 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="21"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="4" t="s">
         <v>268</v>
       </c>
@@ -8052,7 +8055,7 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="4" t="s">
         <v>269</v>
       </c>
@@ -8083,7 +8086,7 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="21"/>
+      <c r="A186" s="24"/>
       <c r="B186" s="4" t="s">
         <v>270</v>
       </c>
@@ -8114,7 +8117,7 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="21"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="4" t="s">
         <v>271</v>
       </c>
@@ -8145,7 +8148,7 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="21"/>
+      <c r="A188" s="24"/>
       <c r="B188" s="4" t="s">
         <v>272</v>
       </c>
@@ -8176,7 +8179,7 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="21"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="4" t="s">
         <v>273</v>
       </c>
@@ -8207,7 +8210,7 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="21"/>
+      <c r="A190" s="24"/>
       <c r="B190" s="4" t="s">
         <v>274</v>
       </c>
@@ -8238,7 +8241,7 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="21"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="4" t="s">
         <v>275</v>
       </c>
@@ -8269,7 +8272,7 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="21"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="4" t="s">
         <v>276</v>
       </c>
@@ -8300,7 +8303,7 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="21"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="4" t="s">
         <v>277</v>
       </c>
@@ -8331,7 +8334,7 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="21"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="4" t="s">
         <v>278</v>
       </c>
@@ -8362,7 +8365,7 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="21"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="4" t="s">
         <v>279</v>
       </c>
@@ -8393,7 +8396,7 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="21"/>
+      <c r="A196" s="24"/>
       <c r="B196" s="4" t="s">
         <v>280</v>
       </c>
@@ -8424,7 +8427,7 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="21"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="4" t="s">
         <v>281</v>
       </c>
@@ -8455,7 +8458,7 @@
       <c r="Z197" s="2"/>
     </row>
     <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="21"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="4" t="s">
         <v>282</v>
       </c>
@@ -8486,7 +8489,7 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="21"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="4" t="s">
         <v>283</v>
       </c>
@@ -8517,7 +8520,7 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="21"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="4" t="s">
         <v>284</v>
       </c>
@@ -8548,7 +8551,7 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="21"/>
+      <c r="A201" s="24"/>
       <c r="B201" s="4" t="s">
         <v>285</v>
       </c>
@@ -8579,7 +8582,7 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="21"/>
+      <c r="A202" s="24"/>
       <c r="B202" s="4" t="s">
         <v>286</v>
       </c>
@@ -8610,7 +8613,7 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="21"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="4" t="s">
         <v>287</v>
       </c>
@@ -8641,7 +8644,7 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="21"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="4" t="s">
         <v>288</v>
       </c>
@@ -8672,7 +8675,7 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="21"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="4" t="s">
         <v>289</v>
       </c>
@@ -8703,7 +8706,7 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="21"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="4" t="s">
         <v>290</v>
       </c>
@@ -8734,7 +8737,7 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="21"/>
+      <c r="A207" s="24"/>
       <c r="B207" s="4" t="s">
         <v>291</v>
       </c>
@@ -8765,7 +8768,7 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="21"/>
+      <c r="A208" s="24"/>
       <c r="B208" s="4" t="s">
         <v>292</v>
       </c>
@@ -8796,7 +8799,7 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="21"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="4" t="s">
         <v>293</v>
       </c>
@@ -8827,7 +8830,7 @@
       <c r="Z209" s="2"/>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="21"/>
+      <c r="A210" s="24"/>
       <c r="B210" s="4" t="s">
         <v>294</v>
       </c>
@@ -8858,7 +8861,7 @@
       <c r="Z210" s="2"/>
     </row>
     <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="21"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="4" t="s">
         <v>295</v>
       </c>
@@ -8889,7 +8892,7 @@
       <c r="Z211" s="2"/>
     </row>
     <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="21"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="4" t="s">
         <v>296</v>
       </c>
@@ -8920,7 +8923,7 @@
       <c r="Z212" s="2"/>
     </row>
     <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="21"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="4" t="s">
         <v>297</v>
       </c>
@@ -8951,7 +8954,7 @@
       <c r="Z213" s="2"/>
     </row>
     <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="21"/>
+      <c r="A214" s="24"/>
       <c r="B214" s="4" t="s">
         <v>298</v>
       </c>
@@ -8982,7 +8985,7 @@
       <c r="Z214" s="2"/>
     </row>
     <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="21"/>
+      <c r="A215" s="24"/>
       <c r="B215" s="4" t="s">
         <v>299</v>
       </c>
@@ -9013,7 +9016,7 @@
       <c r="Z215" s="2"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="21"/>
+      <c r="A216" s="24"/>
       <c r="B216" s="4" t="s">
         <v>300</v>
       </c>
@@ -9044,7 +9047,7 @@
       <c r="Z216" s="2"/>
     </row>
     <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="21"/>
+      <c r="A217" s="24"/>
       <c r="B217" s="4" t="s">
         <v>301</v>
       </c>
@@ -9075,7 +9078,7 @@
       <c r="Z217" s="2"/>
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="22"/>
+      <c r="A218" s="25"/>
       <c r="B218" s="4" t="s">
         <v>302</v>
       </c>
@@ -31013,9 +31016,7 @@
   </sheetPr>
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31059,7 +31060,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -31088,7 +31089,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
@@ -31115,7 +31116,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="10" t="s">
         <v>12</v>
       </c>
@@ -31142,7 +31143,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
@@ -31169,7 +31170,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
@@ -31186,17 +31187,17 @@
         <v>5</v>
       </c>
       <c r="G6" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="H6" s="14" t="s">
         <v>320</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>321</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
@@ -31207,23 +31208,23 @@
         <v>22</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F7" s="5">
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>324</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
@@ -31234,23 +31235,23 @@
         <v>24</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="F8" s="35">
+        <v>324</v>
+      </c>
+      <c r="F8" s="20">
         <v>7</v>
       </c>
-      <c r="G8" s="36" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" s="37" t="s">
+      <c r="G8" s="21" t="s">
         <v>401</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>402</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -31265,7 +31266,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="4" t="s">
         <v>27</v>
       </c>
@@ -31273,14 +31274,14 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
@@ -31291,11 +31292,11 @@
         <v>31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4" t="s">
         <v>33</v>
       </c>
@@ -31306,11 +31307,11 @@
         <v>34</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
@@ -31321,7 +31322,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -31329,7 +31330,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -31340,7 +31341,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -31348,7 +31349,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4" t="s">
         <v>42</v>
       </c>
@@ -31359,7 +31360,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -31367,7 +31368,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4" t="s">
         <v>45</v>
       </c>
@@ -31378,7 +31379,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -31386,7 +31387,7 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
@@ -31397,7 +31398,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -31405,7 +31406,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="10" t="s">
         <v>51</v>
       </c>
@@ -31413,10 +31414,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>335</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>336</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -31424,7 +31425,7 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
@@ -31443,7 +31444,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
@@ -31454,7 +31455,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -31462,7 +31463,7 @@
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="10" t="s">
         <v>58</v>
       </c>
@@ -31473,7 +31474,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -31481,7 +31482,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -31492,7 +31493,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -31500,7 +31501,7 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="10" t="s">
         <v>64</v>
       </c>
@@ -31511,7 +31512,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -31519,7 +31520,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="10" t="s">
         <v>67</v>
       </c>
@@ -31530,7 +31531,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -31538,7 +31539,7 @@
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="10" t="s">
         <v>70</v>
       </c>
@@ -31549,7 +31550,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -31557,7 +31558,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
@@ -31576,7 +31577,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="4" t="s">
         <v>72</v>
       </c>
@@ -31587,7 +31588,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -31595,7 +31596,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="4" t="s">
         <v>74</v>
       </c>
@@ -31606,7 +31607,7 @@
         <v>75</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -31614,7 +31615,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="4" t="s">
         <v>76</v>
       </c>
@@ -31625,7 +31626,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -31633,7 +31634,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="4" t="s">
         <v>78</v>
       </c>
@@ -31643,14 +31644,16 @@
       <c r="D30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>399</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="4" t="s">
         <v>61</v>
       </c>
@@ -31661,7 +31664,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -31669,7 +31672,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="4" t="s">
         <v>81</v>
       </c>
@@ -31680,7 +31683,7 @@
         <v>82</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -31688,7 +31691,7 @@
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="4" t="s">
         <v>83</v>
       </c>
@@ -31699,7 +31702,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -31707,7 +31710,7 @@
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="21"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="4" t="s">
         <v>85</v>
       </c>
@@ -31718,7 +31721,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -31726,7 +31729,7 @@
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="21"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="4" t="s">
         <v>87</v>
       </c>
@@ -31737,7 +31740,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -31745,7 +31748,7 @@
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="21"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="4" t="s">
         <v>89</v>
       </c>
@@ -31756,7 +31759,7 @@
         <v>90</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -31764,7 +31767,7 @@
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="4" t="s">
         <v>91</v>
       </c>
@@ -31775,7 +31778,7 @@
         <v>92</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -31783,7 +31786,7 @@
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
@@ -31802,7 +31805,7 @@
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="4" t="s">
         <v>72</v>
       </c>
@@ -31819,7 +31822,7 @@
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="4" t="s">
         <v>94</v>
       </c>
@@ -31836,7 +31839,7 @@
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="23" t="s">
         <v>96</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -31857,7 +31860,7 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="4" t="s">
         <v>97</v>
       </c>
@@ -31868,7 +31871,7 @@
         <v>98</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -31876,7 +31879,7 @@
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="21"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="4" t="s">
         <v>99</v>
       </c>
@@ -31887,7 +31890,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -31895,7 +31898,7 @@
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="21"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="4" t="s">
         <v>101</v>
       </c>
@@ -31906,7 +31909,7 @@
         <v>102</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -31914,7 +31917,7 @@
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="21"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="10" t="s">
         <v>6</v>
       </c>
@@ -31933,7 +31936,7 @@
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="21"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="10" t="s">
         <v>101</v>
       </c>
@@ -31944,7 +31947,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -31952,7 +31955,7 @@
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="10" t="s">
         <v>104</v>
       </c>
@@ -31963,7 +31966,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -31971,7 +31974,7 @@
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="10" t="s">
         <v>106</v>
       </c>
@@ -31982,7 +31985,7 @@
         <v>107</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -31990,7 +31993,7 @@
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="21"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="10" t="s">
         <v>108</v>
       </c>
@@ -32001,7 +32004,7 @@
         <v>109</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -32009,9 +32012,9 @@
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="21"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>38</v>
@@ -32020,7 +32023,7 @@
         <v>111</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -32028,7 +32031,7 @@
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="21"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="4" t="s">
         <v>112</v>
       </c>
@@ -32039,7 +32042,7 @@
         <v>113</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -32047,7 +32050,7 @@
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="21"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="4" t="s">
         <v>114</v>
       </c>
@@ -32058,7 +32061,7 @@
         <v>115</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -32066,7 +32069,7 @@
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="21"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="4" t="s">
         <v>116</v>
       </c>
@@ -32077,7 +32080,7 @@
         <v>117</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -32085,7 +32088,7 @@
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="21"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="10" t="s">
         <v>64</v>
       </c>
@@ -32096,7 +32099,7 @@
         <v>118</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -32104,7 +32107,7 @@
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="21"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="10" t="s">
         <v>67</v>
       </c>
@@ -32115,7 +32118,7 @@
         <v>119</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -32123,7 +32126,7 @@
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
@@ -32142,7 +32145,7 @@
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="21"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="4" t="s">
         <v>120</v>
       </c>
@@ -32153,7 +32156,7 @@
         <v>121</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -32161,7 +32164,7 @@
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
         <v>101</v>
       </c>
@@ -32172,7 +32175,7 @@
         <v>122</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -32180,7 +32183,7 @@
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="23" t="s">
         <v>123</v>
       </c>
       <c r="B59" s="19" t="s">
@@ -32193,7 +32196,7 @@
         <v>125</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -32201,7 +32204,7 @@
       <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="21"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="4" t="s">
         <v>97</v>
       </c>
@@ -32212,7 +32215,7 @@
         <v>126</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -32220,7 +32223,7 @@
       <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="21"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="4" t="s">
         <v>6</v>
       </c>
@@ -32239,7 +32242,7 @@
       <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="21"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="4" t="s">
         <v>72</v>
       </c>
@@ -32250,7 +32253,7 @@
         <v>127</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -32258,7 +32261,7 @@
       <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="21"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="4" t="s">
         <v>120</v>
       </c>
@@ -32269,7 +32272,7 @@
         <v>121</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -32277,7 +32280,7 @@
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="21"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="4" t="s">
         <v>128</v>
       </c>
@@ -32288,7 +32291,7 @@
         <v>129</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -32296,7 +32299,7 @@
       <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="21"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="4" t="s">
         <v>130</v>
       </c>
@@ -32307,7 +32310,7 @@
         <v>131</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -32315,7 +32318,7 @@
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="21"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="4" t="s">
         <v>132</v>
       </c>
@@ -32326,7 +32329,7 @@
         <v>133</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -32334,7 +32337,7 @@
       <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="21"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="4" t="s">
         <v>134</v>
       </c>
@@ -32345,7 +32348,7 @@
         <v>135</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -32353,7 +32356,7 @@
       <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="21"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="4" t="s">
         <v>136</v>
       </c>
@@ -32364,7 +32367,7 @@
         <v>137</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -32372,7 +32375,7 @@
       <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="21"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="10" t="s">
         <v>6</v>
       </c>
@@ -32391,7 +32394,7 @@
       <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="21"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="10" t="s">
         <v>72</v>
       </c>
@@ -32402,7 +32405,7 @@
         <v>138</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -32410,7 +32413,7 @@
       <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
+      <c r="A71" s="25"/>
       <c r="B71" s="10" t="s">
         <v>139</v>
       </c>
@@ -32421,7 +32424,7 @@
         <v>140</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -32429,7 +32432,7 @@
       <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="20" t="s">
+      <c r="A72" s="23" t="s">
         <v>141</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -32442,7 +32445,7 @@
         <v>143</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -32450,7 +32453,7 @@
       <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="10" t="s">
         <v>144</v>
       </c>
@@ -32461,7 +32464,7 @@
         <v>145</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -32469,7 +32472,7 @@
       <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="4" t="s">
         <v>116</v>
       </c>
@@ -32480,7 +32483,7 @@
         <v>146</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -32488,7 +32491,7 @@
       <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="10" t="s">
         <v>147</v>
       </c>
@@ -32499,7 +32502,7 @@
         <v>148</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -32507,7 +32510,7 @@
       <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="21"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="10" t="s">
         <v>149</v>
       </c>
@@ -32518,7 +32521,7 @@
         <v>150</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -32526,7 +32529,7 @@
       <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="21"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="4" t="s">
         <v>6</v>
       </c>
@@ -32545,7 +32548,7 @@
       <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="21"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="4" t="s">
         <v>72</v>
       </c>
@@ -32553,10 +32556,10 @@
         <v>50</v>
       </c>
       <c r="D78" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>380</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>381</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -32564,7 +32567,7 @@
       <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="4" t="s">
         <v>152</v>
       </c>
@@ -32575,7 +32578,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -32583,7 +32586,7 @@
       <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="4" t="s">
         <v>154</v>
       </c>
@@ -32594,7 +32597,7 @@
         <v>155</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -32602,7 +32605,7 @@
       <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="20" t="s">
+      <c r="A81" s="23" t="s">
         <v>156</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -32615,7 +32618,7 @@
         <v>158</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -32623,7 +32626,7 @@
       <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="4" t="s">
         <v>97</v>
       </c>
@@ -32634,7 +32637,7 @@
         <v>159</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -32642,7 +32645,7 @@
       <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="21"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="10" t="s">
         <v>6</v>
       </c>
@@ -32661,7 +32664,7 @@
       <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="21"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="10" t="s">
         <v>72</v>
       </c>
@@ -32672,7 +32675,7 @@
         <v>160</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -32680,7 +32683,7 @@
       <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="21"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="10" t="s">
         <v>161</v>
       </c>
@@ -32691,7 +32694,7 @@
         <v>162</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -32699,7 +32702,7 @@
       <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="21"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="10" t="s">
         <v>116</v>
       </c>
@@ -32710,7 +32713,7 @@
         <v>146</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -32718,7 +32721,7 @@
       <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="21"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="10" t="s">
         <v>157</v>
       </c>
@@ -32729,7 +32732,7 @@
         <v>163</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -32737,9 +32740,9 @@
       <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="21"/>
+      <c r="A88" s="24"/>
       <c r="B88" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>53</v>
@@ -32748,7 +32751,7 @@
         <v>165</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -32756,7 +32759,7 @@
       <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="10" t="s">
         <v>166</v>
       </c>
@@ -32767,7 +32770,7 @@
         <v>167</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -32775,7 +32778,7 @@
       <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="20" t="s">
+      <c r="A90" s="23" t="s">
         <v>168</v>
       </c>
       <c r="B90" s="10" t="s">
@@ -32788,7 +32791,7 @@
         <v>93</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -32796,7 +32799,7 @@
       <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="21"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="10" t="s">
         <v>6</v>
       </c>
@@ -32815,7 +32818,7 @@
       <c r="I91" s="2"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="21"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="10" t="s">
         <v>169</v>
       </c>
@@ -32826,7 +32829,7 @@
         <v>170</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -32834,7 +32837,7 @@
       <c r="I92" s="2"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="21"/>
+      <c r="A93" s="24"/>
       <c r="B93" s="4" t="s">
         <v>116</v>
       </c>
@@ -32845,7 +32848,7 @@
         <v>146</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -32853,7 +32856,7 @@
       <c r="I93" s="2"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="21"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="4" t="s">
         <v>171</v>
       </c>
@@ -32864,7 +32867,7 @@
         <v>172</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -32872,7 +32875,7 @@
       <c r="I94" s="2"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="21"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="4" t="s">
         <v>173</v>
       </c>
@@ -32883,7 +32886,7 @@
         <v>174</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -32891,7 +32894,7 @@
       <c r="I95" s="2"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="21"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="10" t="s">
         <v>175</v>
       </c>
@@ -32902,7 +32905,7 @@
         <v>107</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -32910,7 +32913,7 @@
       <c r="I96" s="2"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="22"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="10" t="s">
         <v>176</v>
       </c>
@@ -32921,7 +32924,7 @@
         <v>177</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -32929,7 +32932,7 @@
       <c r="I97" s="2"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="23" t="s">
         <v>178</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -32942,7 +32945,7 @@
         <v>180</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -32950,7 +32953,7 @@
       <c r="I98" s="2"/>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="21"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
       </c>
@@ -32969,7 +32972,7 @@
       <c r="I99" s="2"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="22"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="4" t="s">
         <v>181</v>
       </c>
@@ -32980,7 +32983,7 @@
         <v>182</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -32988,7 +32991,7 @@
       <c r="I100" s="2"/>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="23" t="s">
         <v>183</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -33009,7 +33012,7 @@
       <c r="I101" s="2"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="21"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="4" t="s">
         <v>184</v>
       </c>
@@ -33026,7 +33029,7 @@
       <c r="I102" s="2"/>
     </row>
     <row r="103" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="21"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="4" t="s">
         <v>186</v>
       </c>
@@ -33043,7 +33046,7 @@
       <c r="I103" s="2"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="21"/>
+      <c r="A104" s="24"/>
       <c r="B104" s="4" t="s">
         <v>188</v>
       </c>
@@ -33060,7 +33063,7 @@
       <c r="I104" s="2"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="21"/>
+      <c r="A105" s="24"/>
       <c r="B105" s="4" t="s">
         <v>190</v>
       </c>
@@ -33077,7 +33080,7 @@
       <c r="I105" s="2"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="21"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="4" t="s">
         <v>192</v>
       </c>
@@ -33094,7 +33097,7 @@
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="21"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="4" t="s">
         <v>194</v>
       </c>
@@ -33111,7 +33114,7 @@
       <c r="I107" s="2"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="21"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="4" t="s">
         <v>196</v>
       </c>
@@ -33128,7 +33131,7 @@
       <c r="I108" s="2"/>
     </row>
     <row r="109" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="21"/>
+      <c r="A109" s="24"/>
       <c r="B109" s="4" t="s">
         <v>198</v>
       </c>
@@ -33145,7 +33148,7 @@
       <c r="I109" s="2"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="21"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="4" t="s">
         <v>6</v>
       </c>
@@ -33164,7 +33167,7 @@
       <c r="I110" s="2"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="21"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="4" t="s">
         <v>184</v>
       </c>
@@ -33181,7 +33184,7 @@
       <c r="I111" s="2"/>
     </row>
     <row r="112" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="21"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="4" t="s">
         <v>200</v>
       </c>
@@ -33198,7 +33201,7 @@
       <c r="I112" s="2"/>
     </row>
     <row r="113" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="21"/>
+      <c r="A113" s="24"/>
       <c r="B113" s="4" t="s">
         <v>192</v>
       </c>
@@ -33215,7 +33218,7 @@
       <c r="I113" s="2"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="21"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="4" t="s">
         <v>201</v>
       </c>
@@ -33232,7 +33235,7 @@
       <c r="I114" s="2"/>
     </row>
     <row r="115" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="21"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="4" t="s">
         <v>196</v>
       </c>
@@ -33249,7 +33252,7 @@
       <c r="I115" s="2"/>
     </row>
     <row r="116" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="22"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="4" t="s">
         <v>198</v>
       </c>
@@ -33266,7 +33269,7 @@
       <c r="I116" s="2"/>
     </row>
     <row r="117" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="20" t="s">
+      <c r="A117" s="23" t="s">
         <v>202</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -33287,7 +33290,7 @@
       <c r="I117" s="2"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="21"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="4" t="s">
         <v>72</v>
       </c>
@@ -33304,7 +33307,7 @@
       <c r="I118" s="2"/>
     </row>
     <row r="119" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="21"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="4" t="s">
         <v>203</v>
       </c>
@@ -33319,7 +33322,7 @@
       <c r="I119" s="2"/>
     </row>
     <row r="120" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="21"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="4" t="s">
         <v>204</v>
       </c>
@@ -33334,7 +33337,7 @@
       <c r="I120" s="2"/>
     </row>
     <row r="121" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="21"/>
+      <c r="A121" s="24"/>
       <c r="B121" s="4" t="s">
         <v>205</v>
       </c>
@@ -33349,7 +33352,7 @@
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="21"/>
+      <c r="A122" s="24"/>
       <c r="B122" s="4" t="s">
         <v>206</v>
       </c>
@@ -33364,7 +33367,7 @@
       <c r="I122" s="2"/>
     </row>
     <row r="123" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="21"/>
+      <c r="A123" s="24"/>
       <c r="B123" s="4" t="s">
         <v>207</v>
       </c>
@@ -33379,7 +33382,7 @@
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="21"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="4" t="s">
         <v>208</v>
       </c>
@@ -33394,7 +33397,7 @@
       <c r="I124" s="2"/>
     </row>
     <row r="125" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="21"/>
+      <c r="A125" s="24"/>
       <c r="B125" s="4" t="s">
         <v>209</v>
       </c>
@@ -33409,7 +33412,7 @@
       <c r="I125" s="2"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="21"/>
+      <c r="A126" s="24"/>
       <c r="B126" s="4" t="s">
         <v>210</v>
       </c>
@@ -33424,7 +33427,7 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="21"/>
+      <c r="A127" s="24"/>
       <c r="B127" s="4" t="s">
         <v>211</v>
       </c>
@@ -33439,7 +33442,7 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="21"/>
+      <c r="A128" s="24"/>
       <c r="B128" s="4" t="s">
         <v>212</v>
       </c>
@@ -33454,7 +33457,7 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="21"/>
+      <c r="A129" s="24"/>
       <c r="B129" s="4" t="s">
         <v>213</v>
       </c>
@@ -33469,7 +33472,7 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="21"/>
+      <c r="A130" s="24"/>
       <c r="B130" s="4" t="s">
         <v>214</v>
       </c>
@@ -33484,7 +33487,7 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="21"/>
+      <c r="A131" s="24"/>
       <c r="B131" s="4" t="s">
         <v>215</v>
       </c>
@@ -33499,7 +33502,7 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="21"/>
+      <c r="A132" s="24"/>
       <c r="B132" s="4" t="s">
         <v>216</v>
       </c>
@@ -33514,7 +33517,7 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="21"/>
+      <c r="A133" s="24"/>
       <c r="B133" s="4" t="s">
         <v>217</v>
       </c>
@@ -33529,7 +33532,7 @@
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="21"/>
+      <c r="A134" s="24"/>
       <c r="B134" s="4" t="s">
         <v>218</v>
       </c>
@@ -33544,7 +33547,7 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="21"/>
+      <c r="A135" s="24"/>
       <c r="B135" s="4" t="s">
         <v>219</v>
       </c>
@@ -33559,7 +33562,7 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="21"/>
+      <c r="A136" s="24"/>
       <c r="B136" s="4" t="s">
         <v>220</v>
       </c>
@@ -33574,7 +33577,7 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="21"/>
+      <c r="A137" s="24"/>
       <c r="B137" s="4" t="s">
         <v>221</v>
       </c>
@@ -33589,7 +33592,7 @@
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="21"/>
+      <c r="A138" s="24"/>
       <c r="B138" s="4" t="s">
         <v>222</v>
       </c>
@@ -33604,7 +33607,7 @@
       <c r="I138" s="2"/>
     </row>
     <row r="139" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="21"/>
+      <c r="A139" s="24"/>
       <c r="B139" s="4" t="s">
         <v>223</v>
       </c>
@@ -33619,7 +33622,7 @@
       <c r="I139" s="2"/>
     </row>
     <row r="140" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="21"/>
+      <c r="A140" s="24"/>
       <c r="B140" s="4" t="s">
         <v>224</v>
       </c>
@@ -33634,7 +33637,7 @@
       <c r="I140" s="2"/>
     </row>
     <row r="141" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="21"/>
+      <c r="A141" s="24"/>
       <c r="B141" s="4" t="s">
         <v>225</v>
       </c>
@@ -33649,7 +33652,7 @@
       <c r="I141" s="2"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="21"/>
+      <c r="A142" s="24"/>
       <c r="B142" s="4" t="s">
         <v>226</v>
       </c>
@@ -33664,7 +33667,7 @@
       <c r="I142" s="2"/>
     </row>
     <row r="143" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="21"/>
+      <c r="A143" s="24"/>
       <c r="B143" s="4" t="s">
         <v>227</v>
       </c>
@@ -33679,7 +33682,7 @@
       <c r="I143" s="2"/>
     </row>
     <row r="144" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="21"/>
+      <c r="A144" s="24"/>
       <c r="B144" s="4" t="s">
         <v>228</v>
       </c>
@@ -33694,7 +33697,7 @@
       <c r="I144" s="2"/>
     </row>
     <row r="145" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="21"/>
+      <c r="A145" s="24"/>
       <c r="B145" s="4" t="s">
         <v>229</v>
       </c>
@@ -33709,7 +33712,7 @@
       <c r="I145" s="2"/>
     </row>
     <row r="146" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="21"/>
+      <c r="A146" s="24"/>
       <c r="B146" s="4" t="s">
         <v>230</v>
       </c>
@@ -33724,7 +33727,7 @@
       <c r="I146" s="2"/>
     </row>
     <row r="147" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="21"/>
+      <c r="A147" s="24"/>
       <c r="B147" s="4" t="s">
         <v>231</v>
       </c>
@@ -33739,7 +33742,7 @@
       <c r="I147" s="2"/>
     </row>
     <row r="148" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="21"/>
+      <c r="A148" s="24"/>
       <c r="B148" s="4" t="s">
         <v>232</v>
       </c>
@@ -33754,7 +33757,7 @@
       <c r="I148" s="2"/>
     </row>
     <row r="149" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="21"/>
+      <c r="A149" s="24"/>
       <c r="B149" s="4" t="s">
         <v>233</v>
       </c>
@@ -33769,7 +33772,7 @@
       <c r="I149" s="2"/>
     </row>
     <row r="150" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="21"/>
+      <c r="A150" s="24"/>
       <c r="B150" s="4" t="s">
         <v>234</v>
       </c>
@@ -33784,7 +33787,7 @@
       <c r="I150" s="2"/>
     </row>
     <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="21"/>
+      <c r="A151" s="24"/>
       <c r="B151" s="4" t="s">
         <v>235</v>
       </c>
@@ -33799,7 +33802,7 @@
       <c r="I151" s="2"/>
     </row>
     <row r="152" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="21"/>
+      <c r="A152" s="24"/>
       <c r="B152" s="4" t="s">
         <v>236</v>
       </c>
@@ -33814,7 +33817,7 @@
       <c r="I152" s="2"/>
     </row>
     <row r="153" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="21"/>
+      <c r="A153" s="24"/>
       <c r="B153" s="4" t="s">
         <v>237</v>
       </c>
@@ -33829,7 +33832,7 @@
       <c r="I153" s="2"/>
     </row>
     <row r="154" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="21"/>
+      <c r="A154" s="24"/>
       <c r="B154" s="4" t="s">
         <v>238</v>
       </c>
@@ -33844,7 +33847,7 @@
       <c r="I154" s="2"/>
     </row>
     <row r="155" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="21"/>
+      <c r="A155" s="24"/>
       <c r="B155" s="4" t="s">
         <v>239</v>
       </c>
@@ -33859,7 +33862,7 @@
       <c r="I155" s="2"/>
     </row>
     <row r="156" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="21"/>
+      <c r="A156" s="24"/>
       <c r="B156" s="4" t="s">
         <v>240</v>
       </c>
@@ -33874,7 +33877,7 @@
       <c r="I156" s="2"/>
     </row>
     <row r="157" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21"/>
+      <c r="A157" s="24"/>
       <c r="B157" s="4" t="s">
         <v>241</v>
       </c>
@@ -33889,7 +33892,7 @@
       <c r="I157" s="2"/>
     </row>
     <row r="158" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="21"/>
+      <c r="A158" s="24"/>
       <c r="B158" s="4" t="s">
         <v>242</v>
       </c>
@@ -33904,7 +33907,7 @@
       <c r="I158" s="2"/>
     </row>
     <row r="159" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="21"/>
+      <c r="A159" s="24"/>
       <c r="B159" s="4" t="s">
         <v>243</v>
       </c>
@@ -33919,7 +33922,7 @@
       <c r="I159" s="2"/>
     </row>
     <row r="160" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="21"/>
+      <c r="A160" s="24"/>
       <c r="B160" s="4" t="s">
         <v>244</v>
       </c>
@@ -33934,7 +33937,7 @@
       <c r="I160" s="2"/>
     </row>
     <row r="161" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="21"/>
+      <c r="A161" s="24"/>
       <c r="B161" s="4" t="s">
         <v>245</v>
       </c>
@@ -33949,7 +33952,7 @@
       <c r="I161" s="2"/>
     </row>
     <row r="162" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="21"/>
+      <c r="A162" s="24"/>
       <c r="B162" s="4" t="s">
         <v>246</v>
       </c>
@@ -33964,7 +33967,7 @@
       <c r="I162" s="2"/>
     </row>
     <row r="163" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="21"/>
+      <c r="A163" s="24"/>
       <c r="B163" s="4" t="s">
         <v>247</v>
       </c>
@@ -33979,7 +33982,7 @@
       <c r="I163" s="2"/>
     </row>
     <row r="164" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="21"/>
+      <c r="A164" s="24"/>
       <c r="B164" s="4" t="s">
         <v>248</v>
       </c>
@@ -33994,7 +33997,7 @@
       <c r="I164" s="2"/>
     </row>
     <row r="165" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="21"/>
+      <c r="A165" s="24"/>
       <c r="B165" s="4" t="s">
         <v>249</v>
       </c>
@@ -34009,7 +34012,7 @@
       <c r="I165" s="2"/>
     </row>
     <row r="166" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="21"/>
+      <c r="A166" s="24"/>
       <c r="B166" s="4" t="s">
         <v>250</v>
       </c>
@@ -34024,7 +34027,7 @@
       <c r="I166" s="2"/>
     </row>
     <row r="167" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="21"/>
+      <c r="A167" s="24"/>
       <c r="B167" s="4" t="s">
         <v>251</v>
       </c>
@@ -34039,7 +34042,7 @@
       <c r="I167" s="2"/>
     </row>
     <row r="168" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="21"/>
+      <c r="A168" s="24"/>
       <c r="B168" s="4" t="s">
         <v>252</v>
       </c>
@@ -34054,7 +34057,7 @@
       <c r="I168" s="2"/>
     </row>
     <row r="169" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="21"/>
+      <c r="A169" s="24"/>
       <c r="B169" s="4" t="s">
         <v>253</v>
       </c>
@@ -34069,7 +34072,7 @@
       <c r="I169" s="2"/>
     </row>
     <row r="170" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="21"/>
+      <c r="A170" s="24"/>
       <c r="B170" s="4" t="s">
         <v>254</v>
       </c>
@@ -34084,7 +34087,7 @@
       <c r="I170" s="2"/>
     </row>
     <row r="171" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="21"/>
+      <c r="A171" s="24"/>
       <c r="B171" s="4" t="s">
         <v>255</v>
       </c>
@@ -34099,7 +34102,7 @@
       <c r="I171" s="2"/>
     </row>
     <row r="172" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="21"/>
+      <c r="A172" s="24"/>
       <c r="B172" s="4" t="s">
         <v>256</v>
       </c>
@@ -34114,7 +34117,7 @@
       <c r="I172" s="2"/>
     </row>
     <row r="173" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="21"/>
+      <c r="A173" s="24"/>
       <c r="B173" s="4" t="s">
         <v>257</v>
       </c>
@@ -34129,7 +34132,7 @@
       <c r="I173" s="2"/>
     </row>
     <row r="174" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="21"/>
+      <c r="A174" s="24"/>
       <c r="B174" s="4" t="s">
         <v>258</v>
       </c>
@@ -34144,7 +34147,7 @@
       <c r="I174" s="2"/>
     </row>
     <row r="175" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="21"/>
+      <c r="A175" s="24"/>
       <c r="B175" s="4" t="s">
         <v>259</v>
       </c>
@@ -34159,7 +34162,7 @@
       <c r="I175" s="2"/>
     </row>
     <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="21"/>
+      <c r="A176" s="24"/>
       <c r="B176" s="4" t="s">
         <v>260</v>
       </c>
@@ -34174,7 +34177,7 @@
       <c r="I176" s="2"/>
     </row>
     <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="21"/>
+      <c r="A177" s="24"/>
       <c r="B177" s="4" t="s">
         <v>261</v>
       </c>
@@ -34189,7 +34192,7 @@
       <c r="I177" s="2"/>
     </row>
     <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="21"/>
+      <c r="A178" s="24"/>
       <c r="B178" s="4" t="s">
         <v>262</v>
       </c>
@@ -34204,7 +34207,7 @@
       <c r="I178" s="2"/>
     </row>
     <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="21"/>
+      <c r="A179" s="24"/>
       <c r="B179" s="4" t="s">
         <v>263</v>
       </c>
@@ -34219,7 +34222,7 @@
       <c r="I179" s="2"/>
     </row>
     <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="21"/>
+      <c r="A180" s="24"/>
       <c r="B180" s="4" t="s">
         <v>264</v>
       </c>
@@ -34234,7 +34237,7 @@
       <c r="I180" s="2"/>
     </row>
     <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="21"/>
+      <c r="A181" s="24"/>
       <c r="B181" s="4" t="s">
         <v>265</v>
       </c>
@@ -34249,7 +34252,7 @@
       <c r="I181" s="2"/>
     </row>
     <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
+      <c r="A182" s="24"/>
       <c r="B182" s="4" t="s">
         <v>266</v>
       </c>
@@ -34264,7 +34267,7 @@
       <c r="I182" s="2"/>
     </row>
     <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="21"/>
+      <c r="A183" s="24"/>
       <c r="B183" s="4" t="s">
         <v>267</v>
       </c>
@@ -34279,7 +34282,7 @@
       <c r="I183" s="2"/>
     </row>
     <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="21"/>
+      <c r="A184" s="24"/>
       <c r="B184" s="4" t="s">
         <v>268</v>
       </c>
@@ -34294,7 +34297,7 @@
       <c r="I184" s="2"/>
     </row>
     <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="21"/>
+      <c r="A185" s="24"/>
       <c r="B185" s="4" t="s">
         <v>269</v>
       </c>
@@ -34309,7 +34312,7 @@
       <c r="I185" s="2"/>
     </row>
     <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="21"/>
+      <c r="A186" s="24"/>
       <c r="B186" s="4" t="s">
         <v>270</v>
       </c>
@@ -34324,7 +34327,7 @@
       <c r="I186" s="2"/>
     </row>
     <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="21"/>
+      <c r="A187" s="24"/>
       <c r="B187" s="4" t="s">
         <v>271</v>
       </c>
@@ -34339,7 +34342,7 @@
       <c r="I187" s="2"/>
     </row>
     <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="21"/>
+      <c r="A188" s="24"/>
       <c r="B188" s="4" t="s">
         <v>272</v>
       </c>
@@ -34354,7 +34357,7 @@
       <c r="I188" s="2"/>
     </row>
     <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="21"/>
+      <c r="A189" s="24"/>
       <c r="B189" s="4" t="s">
         <v>273</v>
       </c>
@@ -34369,7 +34372,7 @@
       <c r="I189" s="2"/>
     </row>
     <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="21"/>
+      <c r="A190" s="24"/>
       <c r="B190" s="4" t="s">
         <v>274</v>
       </c>
@@ -34384,7 +34387,7 @@
       <c r="I190" s="2"/>
     </row>
     <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="21"/>
+      <c r="A191" s="24"/>
       <c r="B191" s="4" t="s">
         <v>275</v>
       </c>
@@ -34399,7 +34402,7 @@
       <c r="I191" s="2"/>
     </row>
     <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="21"/>
+      <c r="A192" s="24"/>
       <c r="B192" s="4" t="s">
         <v>276</v>
       </c>
@@ -34414,7 +34417,7 @@
       <c r="I192" s="2"/>
     </row>
     <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="21"/>
+      <c r="A193" s="24"/>
       <c r="B193" s="4" t="s">
         <v>277</v>
       </c>
@@ -34429,7 +34432,7 @@
       <c r="I193" s="2"/>
     </row>
     <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="21"/>
+      <c r="A194" s="24"/>
       <c r="B194" s="4" t="s">
         <v>278</v>
       </c>
@@ -34444,7 +34447,7 @@
       <c r="I194" s="2"/>
     </row>
     <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="21"/>
+      <c r="A195" s="24"/>
       <c r="B195" s="4" t="s">
         <v>279</v>
       </c>
@@ -34459,7 +34462,7 @@
       <c r="I195" s="2"/>
     </row>
     <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="21"/>
+      <c r="A196" s="24"/>
       <c r="B196" s="4" t="s">
         <v>280</v>
       </c>
@@ -34474,7 +34477,7 @@
       <c r="I196" s="2"/>
     </row>
     <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="21"/>
+      <c r="A197" s="24"/>
       <c r="B197" s="4" t="s">
         <v>281</v>
       </c>
@@ -34489,7 +34492,7 @@
       <c r="I197" s="2"/>
     </row>
     <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="21"/>
+      <c r="A198" s="24"/>
       <c r="B198" s="4" t="s">
         <v>282</v>
       </c>
@@ -34504,7 +34507,7 @@
       <c r="I198" s="2"/>
     </row>
     <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="21"/>
+      <c r="A199" s="24"/>
       <c r="B199" s="4" t="s">
         <v>283</v>
       </c>
@@ -34519,7 +34522,7 @@
       <c r="I199" s="2"/>
     </row>
     <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="21"/>
+      <c r="A200" s="24"/>
       <c r="B200" s="4" t="s">
         <v>284</v>
       </c>
@@ -34534,7 +34537,7 @@
       <c r="I200" s="2"/>
     </row>
     <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="21"/>
+      <c r="A201" s="24"/>
       <c r="B201" s="4" t="s">
         <v>285</v>
       </c>
@@ -34549,7 +34552,7 @@
       <c r="I201" s="2"/>
     </row>
     <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="21"/>
+      <c r="A202" s="24"/>
       <c r="B202" s="4" t="s">
         <v>286</v>
       </c>
@@ -34564,7 +34567,7 @@
       <c r="I202" s="2"/>
     </row>
     <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="21"/>
+      <c r="A203" s="24"/>
       <c r="B203" s="4" t="s">
         <v>287</v>
       </c>
@@ -34579,7 +34582,7 @@
       <c r="I203" s="2"/>
     </row>
     <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="21"/>
+      <c r="A204" s="24"/>
       <c r="B204" s="4" t="s">
         <v>288</v>
       </c>
@@ -34594,7 +34597,7 @@
       <c r="I204" s="2"/>
     </row>
     <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="21"/>
+      <c r="A205" s="24"/>
       <c r="B205" s="4" t="s">
         <v>289</v>
       </c>
@@ -34609,7 +34612,7 @@
       <c r="I205" s="2"/>
     </row>
     <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="21"/>
+      <c r="A206" s="24"/>
       <c r="B206" s="4" t="s">
         <v>290</v>
       </c>
@@ -34624,7 +34627,7 @@
       <c r="I206" s="2"/>
     </row>
     <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="21"/>
+      <c r="A207" s="24"/>
       <c r="B207" s="4" t="s">
         <v>291</v>
       </c>
@@ -34639,7 +34642,7 @@
       <c r="I207" s="2"/>
     </row>
     <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="21"/>
+      <c r="A208" s="24"/>
       <c r="B208" s="4" t="s">
         <v>292</v>
       </c>
@@ -34654,7 +34657,7 @@
       <c r="I208" s="2"/>
     </row>
     <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="21"/>
+      <c r="A209" s="24"/>
       <c r="B209" s="4" t="s">
         <v>293</v>
       </c>
@@ -34669,7 +34672,7 @@
       <c r="I209" s="2"/>
     </row>
     <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="21"/>
+      <c r="A210" s="24"/>
       <c r="B210" s="4" t="s">
         <v>294</v>
       </c>
@@ -34684,7 +34687,7 @@
       <c r="I210" s="2"/>
     </row>
     <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="21"/>
+      <c r="A211" s="24"/>
       <c r="B211" s="4" t="s">
         <v>295</v>
       </c>
@@ -34699,7 +34702,7 @@
       <c r="I211" s="2"/>
     </row>
     <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="21"/>
+      <c r="A212" s="24"/>
       <c r="B212" s="4" t="s">
         <v>296</v>
       </c>
@@ -34714,7 +34717,7 @@
       <c r="I212" s="2"/>
     </row>
     <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="21"/>
+      <c r="A213" s="24"/>
       <c r="B213" s="4" t="s">
         <v>297</v>
       </c>
@@ -34729,7 +34732,7 @@
       <c r="I213" s="2"/>
     </row>
     <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="21"/>
+      <c r="A214" s="24"/>
       <c r="B214" s="4" t="s">
         <v>298</v>
       </c>
@@ -34744,7 +34747,7 @@
       <c r="I214" s="2"/>
     </row>
     <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="21"/>
+      <c r="A215" s="24"/>
       <c r="B215" s="4" t="s">
         <v>299</v>
       </c>
@@ -34759,7 +34762,7 @@
       <c r="I215" s="2"/>
     </row>
     <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="21"/>
+      <c r="A216" s="24"/>
       <c r="B216" s="4" t="s">
         <v>300</v>
       </c>
@@ -34774,7 +34777,7 @@
       <c r="I216" s="2"/>
     </row>
     <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="21"/>
+      <c r="A217" s="24"/>
       <c r="B217" s="4" t="s">
         <v>301</v>
       </c>
@@ -34789,7 +34792,7 @@
       <c r="I217" s="2"/>
     </row>
     <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="22"/>
+      <c r="A218" s="25"/>
       <c r="B218" s="4" t="s">
         <v>302</v>
       </c>

--- a/data/schema.xlsx
+++ b/data/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\File\GitHub\Married-Couple-Identification\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33368FE-0075-4495-9247-557C7E92DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654F3D26-558B-4481-BB5E-5B32B91C0452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3516" yWindow="3516" windowWidth="17280" windowHeight="10044" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="150" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -995,36 +995,24 @@
     <t>customer_id</t>
   </si>
   <si>
-    <t>havale_bil.csv</t>
-  </si>
-  <si>
     <t>transfer</t>
   </si>
   <si>
     <t>customer_age</t>
   </si>
   <si>
-    <t>kk_ekstre_bil.csv</t>
-  </si>
-  <si>
     <t>statement</t>
   </si>
   <si>
     <t>customer_gender</t>
   </si>
   <si>
-    <t>kk_ekstre_odm_bil.csv</t>
-  </si>
-  <si>
     <t>transaction_statement</t>
   </si>
   <si>
     <t>customer_marital_status</t>
   </si>
   <si>
-    <t>kk_har_bilgi.csv</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -1035,9 +1023,6 @@
   </si>
   <si>
     <t>customer_education_level</t>
-  </si>
-  <si>
-    <t>sube_isl_ziy.csv</t>
   </si>
   <si>
     <t>branch_visit</t>
@@ -1303,13 +1288,28 @@
     <t>customer_segment</t>
   </si>
   <si>
-    <t>kitle_orneklem_100k.csv</t>
-  </si>
-  <si>
-    <t>atm_islem_xy.csv</t>
-  </si>
-  <si>
     <t>atm</t>
+  </si>
+  <si>
+    <t>havale_bil.txt</t>
+  </si>
+  <si>
+    <t>kk_ekstre_bil.txt</t>
+  </si>
+  <si>
+    <t>kk_ekstre_odm_bil.txt</t>
+  </si>
+  <si>
+    <t>kk_har_bilgi.txt</t>
+  </si>
+  <si>
+    <t>kitle_orneklem_100k.txt</t>
+  </si>
+  <si>
+    <t>sube_isl_ziy.txt</t>
+  </si>
+  <si>
+    <t>atm_islem_xy.txt</t>
   </si>
 </sst>
 </file>
@@ -30991,6 +30991,11 @@
   </sheetData>
   <autoFilter ref="B1:D218" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="12">
+    <mergeCell ref="A81:A89"/>
+    <mergeCell ref="A90:A97"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="A101:A116"/>
+    <mergeCell ref="A117:A218"/>
     <mergeCell ref="A59:A71"/>
     <mergeCell ref="A72:A80"/>
     <mergeCell ref="G1:I1"/>
@@ -30998,11 +31003,6 @@
     <mergeCell ref="G2:I4"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="A41:A58"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="A101:A116"/>
-    <mergeCell ref="A117:A218"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31016,7 +31016,9 @@
   </sheetPr>
   <dimension ref="A1:I218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -31079,10 +31081,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H2" s="14" t="s">
         <v>308</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>309</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>53</v>
@@ -31100,16 +31102,16 @@
         <v>11</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>311</v>
+        <v>397</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>44</v>
@@ -31127,16 +31129,16 @@
         <v>13</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F4" s="5">
         <v>3</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>314</v>
+        <v>398</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>41</v>
@@ -31154,16 +31156,16 @@
         <v>15</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F5" s="5">
         <v>4</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>317</v>
+        <v>399</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>38</v>
@@ -31181,7 +31183,7 @@
         <v>17</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>
@@ -31190,7 +31192,7 @@
         <v>400</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>7</v>
@@ -31208,16 +31210,16 @@
         <v>22</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F7" s="5">
         <v>6</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>322</v>
+        <v>401</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>26</v>
@@ -31235,16 +31237,16 @@
         <v>24</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F8" s="20">
         <v>7</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>47</v>
@@ -31274,10 +31276,10 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -31292,7 +31294,7 @@
         <v>31</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -31307,7 +31309,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -31322,7 +31324,7 @@
         <v>37</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -31341,7 +31343,7 @@
         <v>40</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -31360,7 +31362,7 @@
         <v>43</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -31379,7 +31381,7 @@
         <v>46</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -31398,7 +31400,7 @@
         <v>49</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -31414,10 +31416,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -31455,7 +31457,7 @@
         <v>56</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -31474,7 +31476,7 @@
         <v>59</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -31493,7 +31495,7 @@
         <v>62</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -31512,7 +31514,7 @@
         <v>65</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -31531,7 +31533,7 @@
         <v>68</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -31550,7 +31552,7 @@
         <v>71</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -31588,7 +31590,7 @@
         <v>73</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -31607,7 +31609,7 @@
         <v>75</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -31626,7 +31628,7 @@
         <v>77</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -31645,7 +31647,7 @@
         <v>79</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -31664,7 +31666,7 @@
         <v>80</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -31683,7 +31685,7 @@
         <v>82</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -31702,7 +31704,7 @@
         <v>84</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -31721,7 +31723,7 @@
         <v>86</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -31740,7 +31742,7 @@
         <v>88</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -31759,7 +31761,7 @@
         <v>90</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -31778,7 +31780,7 @@
         <v>92</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -31871,7 +31873,7 @@
         <v>98</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -31890,7 +31892,7 @@
         <v>100</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -31909,7 +31911,7 @@
         <v>102</v>
       </c>
       <c r="E44" s="17" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -31947,7 +31949,7 @@
         <v>103</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -31966,7 +31968,7 @@
         <v>105</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -31985,7 +31987,7 @@
         <v>107</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
@@ -32004,7 +32006,7 @@
         <v>109</v>
       </c>
       <c r="E49" s="17" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
@@ -32014,7 +32016,7 @@
     <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="24"/>
       <c r="B50" s="19" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>38</v>
@@ -32023,7 +32025,7 @@
         <v>111</v>
       </c>
       <c r="E50" s="17" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
@@ -32042,7 +32044,7 @@
         <v>113</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
@@ -32061,7 +32063,7 @@
         <v>115</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -32080,7 +32082,7 @@
         <v>117</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
@@ -32099,7 +32101,7 @@
         <v>118</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -32118,7 +32120,7 @@
         <v>119</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -32156,7 +32158,7 @@
         <v>121</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -32175,7 +32177,7 @@
         <v>122</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -32196,7 +32198,7 @@
         <v>125</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -32215,7 +32217,7 @@
         <v>126</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -32253,7 +32255,7 @@
         <v>127</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
@@ -32272,7 +32274,7 @@
         <v>121</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
@@ -32291,7 +32293,7 @@
         <v>129</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
@@ -32310,7 +32312,7 @@
         <v>131</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -32329,7 +32331,7 @@
         <v>133</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -32348,7 +32350,7 @@
         <v>135</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -32367,7 +32369,7 @@
         <v>137</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -32405,7 +32407,7 @@
         <v>138</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
@@ -32424,7 +32426,7 @@
         <v>140</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -32445,7 +32447,7 @@
         <v>143</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -32464,7 +32466,7 @@
         <v>145</v>
       </c>
       <c r="E73" s="17" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -32483,7 +32485,7 @@
         <v>146</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -32502,7 +32504,7 @@
         <v>148</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
@@ -32521,7 +32523,7 @@
         <v>150</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
@@ -32556,10 +32558,10 @@
         <v>50</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -32578,7 +32580,7 @@
         <v>153</v>
       </c>
       <c r="E79" s="17" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -32597,7 +32599,7 @@
         <v>155</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -32618,7 +32620,7 @@
         <v>158</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -32637,7 +32639,7 @@
         <v>159</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -32675,7 +32677,7 @@
         <v>160</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -32694,7 +32696,7 @@
         <v>162</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -32713,7 +32715,7 @@
         <v>146</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -32732,7 +32734,7 @@
         <v>163</v>
       </c>
       <c r="E87" s="17" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -32742,7 +32744,7 @@
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="24"/>
       <c r="B88" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>53</v>
@@ -32751,7 +32753,7 @@
         <v>165</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -32770,7 +32772,7 @@
         <v>167</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -32791,7 +32793,7 @@
         <v>93</v>
       </c>
       <c r="E90" s="17" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -32829,7 +32831,7 @@
         <v>170</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -32848,7 +32850,7 @@
         <v>146</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -32867,7 +32869,7 @@
         <v>172</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -32886,7 +32888,7 @@
         <v>174</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -32905,7 +32907,7 @@
         <v>107</v>
       </c>
       <c r="E96" s="17" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -32924,7 +32926,7 @@
         <v>177</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -32945,7 +32947,7 @@
         <v>180</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -32983,7 +32985,7 @@
         <v>182</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
